--- a/dataset_volley.xlsx
+++ b/dataset_volley.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessia\Desktop\HFARM\LAB OF SOFTWARE PROJECT DEVELOPMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Final-Crewmates-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A53E9-AE7D-44BC-997F-2478DBB7162C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF030B5-3D34-4068-8EB8-1E4454824AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{381DB8E8-216C-41B8-B6DA-A2B4776491B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{381DB8E8-216C-41B8-B6DA-A2B4776491B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="224">
   <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>Banca Valsabbina Millenium Brescia</t>
-  </si>
-  <si>
     <t>SALA CHIARA</t>
   </si>
   <si>
@@ -110,15 +101,6 @@
     <t>NICOLETTI ANNA</t>
   </si>
   <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>NATIONALITY</t>
-  </si>
-  <si>
     <t>CASILLO LUISA</t>
   </si>
   <si>
@@ -167,9 +149,6 @@
     <t>BEL</t>
   </si>
   <si>
-    <t>Bartoccini Fortinfissi Perugia</t>
-  </si>
-  <si>
     <t>BICI ERBLIRA</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t>ROM</t>
   </si>
   <si>
-    <t>Bosca S.Bernardo Cuneo</t>
-  </si>
-  <si>
     <t>PIANI VITTORIA</t>
   </si>
   <si>
@@ -263,9 +239,6 @@
     <t>BISIO ELENA</t>
   </si>
   <si>
-    <t>Delta Despar Trentino</t>
-  </si>
-  <si>
     <t>POPULINI ALESSIA</t>
   </si>
   <si>
@@ -311,9 +284,6 @@
     <t>DAALDEROP NIKA</t>
   </si>
   <si>
-    <t>Igor Gorgonzola Novara</t>
-  </si>
-  <si>
     <t>ENWEONWU TERRY RUTH</t>
   </si>
   <si>
@@ -362,12 +332,6 @@
     <t>VENTURI MAILA</t>
   </si>
   <si>
-    <t>Il Bisonte Firenze</t>
-  </si>
-  <si>
-    <t>Imoco Volley Conegliano</t>
-  </si>
-  <si>
     <t>CARAVELLO LARA</t>
   </si>
   <si>
@@ -458,9 +422,6 @@
     <t>MEIJERS ANNICK</t>
   </si>
   <si>
-    <t>Reale Mutua Fenera Chieri</t>
-  </si>
-  <si>
     <t>CARRARO GIULIA</t>
   </si>
   <si>
@@ -509,12 +470,6 @@
     <t>NEGRETTI BEATRICE</t>
   </si>
   <si>
-    <t>Saugella Monza</t>
-  </si>
-  <si>
-    <t>Savino Del Bene Scandicci</t>
-  </si>
-  <si>
     <t>STYSIAK MAGDALENA</t>
   </si>
   <si>
@@ -560,9 +515,6 @@
     <t>CAMERA LETIZIA</t>
   </si>
   <si>
-    <t>Unet E-Work Busto Arsizio</t>
-  </si>
-  <si>
     <t>POULTER JORDYN</t>
   </si>
   <si>
@@ -602,9 +554,6 @@
     <t>HERRERA BLANCO LISET</t>
   </si>
   <si>
-    <t>Vbc Èpiù Casalmaggiore</t>
-  </si>
-  <si>
     <t>STUFI FEDERICA</t>
   </si>
   <si>
@@ -653,9 +602,6 @@
     <t>KOSAREVA DAYANA</t>
   </si>
   <si>
-    <t>Zanetti Bergamo</t>
-  </si>
-  <si>
     <t>FAUCETTE JOHNSON JULIANN</t>
   </si>
   <si>
@@ -704,7 +650,61 @@
     <t>ESP</t>
   </si>
   <si>
-    <t>BIRTH</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>BANCA VALSABBINA MILLENIUM BRESCIA</t>
+  </si>
+  <si>
+    <t>BARTOCCINI FORTINFISSI PERUGIA</t>
+  </si>
+  <si>
+    <t>BOSCA S.BERNARDO CUNEO</t>
+  </si>
+  <si>
+    <t>DELTA DESPAR TRENTINO</t>
+  </si>
+  <si>
+    <t>IGOR GORGONZOLA NOVARA</t>
+  </si>
+  <si>
+    <t>IL BISONTE FIRENZE</t>
+  </si>
+  <si>
+    <t>IMOCO VOLLEY CONEGLIANO</t>
+  </si>
+  <si>
+    <t>REALE MUTUA FENERA CHIERI</t>
+  </si>
+  <si>
+    <t>SAUGELLA MONZA</t>
+  </si>
+  <si>
+    <t>SAVINO DEL BENE SCANDICCI</t>
+  </si>
+  <si>
+    <t>UNET E-WORK BUSTO ARSIZIO</t>
+  </si>
+  <si>
+    <t>VBC ÈPIÙ CASALMAGGIORE</t>
+  </si>
+  <si>
+    <t>ZANETTI BERGAMO</t>
   </si>
 </sst>
 </file>
@@ -1220,50 +1220,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A63F9-E294-419D-A374-792BE1D22AA3}">
-  <dimension ref="A1:K183"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="5">
         <v>2003</v>
@@ -1272,18 +1272,18 @@
         <v>160</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>1989</v>
@@ -1292,18 +1292,18 @@
         <v>181</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5">
         <v>1997</v>
@@ -1312,18 +1312,18 @@
         <v>192</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
         <v>1996</v>
@@ -1332,18 +1332,18 @@
         <v>180</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>1994</v>
@@ -1352,18 +1352,18 @@
         <v>174</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5">
         <v>1999</v>
@@ -1372,18 +1372,18 @@
         <v>186</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
         <v>1990</v>
@@ -1392,18 +1392,18 @@
         <v>164</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5">
         <v>1998</v>
@@ -1412,18 +1412,18 @@
         <v>182</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5">
         <v>1987</v>
@@ -1432,18 +1432,18 @@
         <v>179</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5">
         <v>1998</v>
@@ -1452,18 +1452,18 @@
         <v>196</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5">
         <v>1996</v>
@@ -1472,18 +1472,18 @@
         <v>193</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5">
         <v>1992</v>
@@ -1492,18 +1492,18 @@
         <v>186</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5">
         <v>1996</v>
@@ -1512,18 +1512,18 @@
         <v>183</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
         <v>1996</v>
@@ -1532,18 +1532,18 @@
         <v>189</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="10">
         <v>1988</v>
@@ -1552,18 +1552,18 @@
         <v>188</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11">
         <v>1986</v>
@@ -1572,18 +1572,18 @@
         <v>189</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="10">
         <v>1994</v>
@@ -1592,18 +1592,18 @@
         <v>178</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="10">
         <v>2004</v>
@@ -1612,18 +1612,18 @@
         <v>185</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="10">
         <v>1991</v>
@@ -1632,18 +1632,18 @@
         <v>164</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" s="10">
         <v>1991</v>
@@ -1652,18 +1652,18 @@
         <v>175</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="10">
         <v>1998</v>
@@ -1672,18 +1672,18 @@
         <v>163</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" s="10">
         <v>1995</v>
@@ -1692,18 +1692,18 @@
         <v>180</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="10">
         <v>1991</v>
@@ -1712,18 +1712,18 @@
         <v>198</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="10">
         <v>1987</v>
@@ -1732,18 +1732,18 @@
         <v>187</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="10">
         <v>1986</v>
@@ -1752,18 +1752,18 @@
         <v>186</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" s="10">
         <v>1988</v>
@@ -1772,18 +1772,18 @@
         <v>188</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="10">
         <v>1990</v>
@@ -1792,18 +1792,18 @@
         <v>186</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" s="16">
         <v>1995</v>
@@ -1812,18 +1812,18 @@
         <v>185</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" s="16">
         <v>1996</v>
@@ -1832,18 +1832,18 @@
         <v>181</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" s="16">
         <v>2000</v>
@@ -1852,21 +1852,20 @@
         <v>178</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" s="16">
         <v>2001</v>
@@ -1875,21 +1874,20 @@
         <v>182</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33" s="16">
         <v>1993</v>
@@ -1898,21 +1896,20 @@
         <v>187</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" s="16">
         <v>1996</v>
@@ -1921,21 +1918,20 @@
         <v>185</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" s="16">
         <v>1998</v>
@@ -1944,21 +1940,20 @@
         <v>182</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36" s="16">
         <v>1990</v>
@@ -1967,21 +1962,20 @@
         <v>183</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D37" s="16">
         <v>1997</v>
@@ -1990,21 +1984,20 @@
         <v>182</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="16">
         <v>1998</v>
@@ -2013,21 +2006,20 @@
         <v>171</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" s="16">
         <v>1998</v>
@@ -2036,21 +2028,20 @@
         <v>192</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40" s="16">
         <v>2000</v>
@@ -2059,21 +2050,20 @@
         <v>187</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41" s="16">
         <v>2002</v>
@@ -2082,21 +2072,20 @@
         <v>165</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D42" s="21">
         <v>1998</v>
@@ -2105,22 +2094,21 @@
         <v>180</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43" s="21">
         <v>1993</v>
@@ -2129,22 +2117,21 @@
         <v>180</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" s="21">
         <v>1995</v>
@@ -2153,22 +2140,21 @@
         <v>180</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" s="21">
         <v>1999</v>
@@ -2177,22 +2163,21 @@
         <v>178</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46" s="21">
         <v>1988</v>
@@ -2201,22 +2186,21 @@
         <v>188</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D47" s="21">
         <v>1992</v>
@@ -2225,22 +2209,21 @@
         <v>177</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D48" s="21">
         <v>1996</v>
@@ -2249,22 +2232,21 @@
         <v>179</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D49" s="21">
         <v>1997</v>
@@ -2273,22 +2255,21 @@
         <v>186</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="21">
         <v>1999</v>
@@ -2297,22 +2278,21 @@
         <v>182</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D51" s="21">
         <v>1995</v>
@@ -2321,22 +2301,21 @@
         <v>188</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D52" s="21">
         <v>1998</v>
@@ -2345,22 +2324,21 @@
         <v>184</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D53" s="21">
         <v>2000</v>
@@ -2369,22 +2347,21 @@
         <v>183</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" s="21">
         <v>2000</v>
@@ -2393,22 +2370,21 @@
         <v>179</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55" s="21">
         <v>1999</v>
@@ -2417,22 +2393,21 @@
         <v>182</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56" s="21">
         <v>1999</v>
@@ -2441,22 +2416,21 @@
         <v>175</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D57" s="21">
         <v>1996</v>
@@ -2465,22 +2439,21 @@
         <v>193</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D58" s="21">
         <v>1996</v>
@@ -2489,22 +2462,21 @@
         <v>174</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59" s="21">
         <v>1994</v>
@@ -2513,22 +2485,21 @@
         <v>180</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60" s="21">
         <v>1994</v>
@@ -2537,22 +2508,21 @@
         <v>195</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D61" s="21">
         <v>1982</v>
@@ -2561,22 +2531,21 @@
         <v>175</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62" s="21">
         <v>1992</v>
@@ -2585,22 +2554,21 @@
         <v>180</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D63" s="21">
         <v>1996</v>
@@ -2609,22 +2577,21 @@
         <v>185</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" s="21">
         <v>1995</v>
@@ -2633,22 +2600,21 @@
         <v>192</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D65" s="21">
         <v>1996</v>
@@ -2657,19 +2623,18 @@
         <v>191</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D66" s="21">
         <v>1998</v>
@@ -2678,19 +2643,18 @@
         <v>190</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D67" s="21">
         <v>2000</v>
@@ -2699,23 +2663,22 @@
         <v>185</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D68" s="21">
         <v>2002</v>
@@ -2724,23 +2687,22 @@
         <v>181</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D69" s="21">
         <v>1996</v>
@@ -2749,23 +2711,22 @@
         <v>176</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D70" s="21">
         <v>1994</v>
@@ -2774,23 +2735,22 @@
         <v>187</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D71" s="21">
         <v>1997</v>
@@ -2799,23 +2759,22 @@
         <v>183</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G71" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D72" s="21">
         <v>1993</v>
@@ -2824,23 +2783,22 @@
         <v>185</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" s="21">
         <v>2000</v>
@@ -2849,23 +2807,22 @@
         <v>174</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D74" s="21">
         <v>1984</v>
@@ -2874,23 +2831,22 @@
         <v>172</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D75" s="21">
         <v>1993</v>
@@ -2899,23 +2855,22 @@
         <v>188</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D76" s="21">
         <v>1996</v>
@@ -2924,23 +2879,22 @@
         <v>186</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D77" s="21">
         <v>2000</v>
@@ -2949,23 +2903,22 @@
         <v>182</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D78" s="21">
         <v>1999</v>
@@ -2974,23 +2927,22 @@
         <v>176</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D79" s="21">
         <v>2004</v>
@@ -2999,23 +2951,22 @@
         <v>186</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" s="21">
         <v>1996</v>
@@ -3024,23 +2975,22 @@
         <v>162</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81" s="26">
         <v>1994</v>
@@ -3049,23 +2999,22 @@
         <v>176</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
+      <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D82" s="26">
         <v>1997</v>
@@ -3074,23 +3023,22 @@
         <v>189</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
+      <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D83" s="26">
         <v>2000</v>
@@ -3099,20 +3047,19 @@
         <v>190</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D84" s="26">
         <v>1991</v>
@@ -3121,20 +3068,19 @@
         <v>193</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D85" s="26">
         <v>1991</v>
@@ -3143,20 +3089,19 @@
         <v>186</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D86" s="26">
         <v>2002</v>
@@ -3165,20 +3110,19 @@
         <v>184</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87" s="26">
         <v>1987</v>
@@ -3187,20 +3131,19 @@
         <v>173</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D88" s="26">
         <v>1992</v>
@@ -3209,20 +3152,19 @@
         <v>192</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D89" s="26">
         <v>1996</v>
@@ -3231,20 +3173,19 @@
         <v>184</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D90" s="26">
         <v>1990</v>
@@ -3253,20 +3194,19 @@
         <v>181</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="C91" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91" s="26">
         <v>1989</v>
@@ -3275,20 +3215,19 @@
         <v>193</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" s="26">
         <v>1995</v>
@@ -3297,20 +3236,19 @@
         <v>181</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D93" s="26">
         <v>1998</v>
@@ -3319,20 +3257,19 @@
         <v>190</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D94" s="26">
         <v>2001</v>
@@ -3341,20 +3278,19 @@
         <v>192</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D95" s="21">
         <v>1996</v>
@@ -3363,21 +3299,20 @@
         <v>195</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D96" s="21">
         <v>1995</v>
@@ -3386,21 +3321,20 @@
         <v>181</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D97" s="21">
         <v>1997</v>
@@ -3409,21 +3343,20 @@
         <v>180</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D98" s="21">
         <v>1996</v>
@@ -3432,21 +3365,20 @@
         <v>185</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D99" s="21">
         <v>2001</v>
@@ -3455,21 +3387,20 @@
         <v>180</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100" s="21">
         <v>1984</v>
@@ -3478,21 +3409,20 @@
         <v>172</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D101" s="21">
         <v>1995</v>
@@ -3501,21 +3431,20 @@
         <v>188</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D102" s="21">
         <v>1995</v>
@@ -3524,21 +3453,20 @@
         <v>187</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" s="21">
         <v>1997</v>
@@ -3547,21 +3475,20 @@
         <v>176</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D104" s="21">
         <v>1998</v>
@@ -3570,21 +3497,20 @@
         <v>188</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D105" s="21">
         <v>1998</v>
@@ -3593,21 +3519,20 @@
         <v>185</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G105" s="19"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D106" s="21">
         <v>1990</v>
@@ -3616,21 +3541,20 @@
         <v>187</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D107" s="21">
         <v>2000</v>
@@ -3639,21 +3563,20 @@
         <v>188</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G107" s="19"/>
       <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D108" s="21">
         <v>1994</v>
@@ -3662,23 +3585,22 @@
         <v>175</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
+      <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D109" s="21">
         <v>2000</v>
@@ -3687,23 +3609,22 @@
         <v>183</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
+      <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D110" s="21">
         <v>1993</v>
@@ -3712,23 +3633,22 @@
         <v>188</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
+      <c r="I110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D111" s="21">
         <v>1992</v>
@@ -3737,23 +3657,22 @@
         <v>192</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
+      <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D112" s="21">
         <v>1998</v>
@@ -3762,23 +3681,22 @@
         <v>180</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
+      <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D113" s="21">
         <v>1992</v>
@@ -3787,23 +3705,22 @@
         <v>185</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D114" s="21">
         <v>1996</v>
@@ -3812,23 +3729,22 @@
         <v>196</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D115" s="21">
         <v>1998</v>
@@ -3837,23 +3753,22 @@
         <v>188</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
+      <c r="I115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D116" s="21">
         <v>1987</v>
@@ -3862,23 +3777,22 @@
         <v>192</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
+      <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D117" s="21">
         <v>1999</v>
@@ -3887,23 +3801,22 @@
         <v>183</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
+      <c r="I117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D118" s="21">
         <v>2000</v>
@@ -3912,23 +3825,22 @@
         <v>188</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
+      <c r="I118" s="2"/>
       <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D119" s="21">
         <v>1995</v>
@@ -3937,23 +3849,22 @@
         <v>167</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
+      <c r="I119" s="2"/>
       <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D120" s="21">
         <v>1999</v>
@@ -3962,23 +3873,22 @@
         <v>170</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
+      <c r="I120" s="2"/>
       <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D121" s="21">
         <v>2000</v>
@@ -3987,23 +3897,22 @@
         <v>203</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
+      <c r="I121" s="2"/>
       <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D122" s="21">
         <v>1996</v>
@@ -4012,23 +3921,22 @@
         <v>180</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
+      <c r="I122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D123" s="21">
         <v>1994</v>
@@ -4037,23 +3945,22 @@
         <v>187</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
+      <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D124" s="21">
         <v>1996</v>
@@ -4062,23 +3969,22 @@
         <v>184</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
+      <c r="I124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D125" s="21">
         <v>2000</v>
@@ -4087,23 +3993,22 @@
         <v>186</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
+      <c r="I125" s="2"/>
       <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D126" s="21">
         <v>1988</v>
@@ -4112,23 +4017,22 @@
         <v>170</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
+      <c r="I126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D127" s="21">
         <v>2000</v>
@@ -4137,23 +4041,22 @@
         <v>192</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
+      <c r="I127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D128" s="21">
         <v>1988</v>
@@ -4162,23 +4065,22 @@
         <v>174</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
+      <c r="I128" s="2"/>
       <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D129" s="21">
         <v>1999</v>
@@ -4187,23 +4089,22 @@
         <v>190</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G129" s="19"/>
       <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
+      <c r="I129" s="2"/>
       <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D130" s="21">
         <v>1993</v>
@@ -4212,23 +4113,22 @@
         <v>193</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G130" s="19"/>
       <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
+      <c r="I130" s="2"/>
       <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D131" s="21">
         <v>1997</v>
@@ -4237,23 +4137,22 @@
         <v>188</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G131" s="19"/>
       <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
+      <c r="I131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D132" s="21">
         <v>1989</v>
@@ -4262,23 +4161,22 @@
         <v>175</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G132" s="19"/>
       <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
+      <c r="I132" s="2"/>
       <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D133" s="21">
         <v>1993</v>
@@ -4287,22 +4185,21 @@
         <v>185</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>174</v>
-      </c>
       <c r="C134" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D134" s="21">
         <v>1992</v>
@@ -4311,22 +4208,21 @@
         <v>175</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="2"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D135" s="21">
         <v>1997</v>
@@ -4335,23 +4231,22 @@
         <v>188</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
+      <c r="I135" s="2"/>
       <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D136" s="21">
         <v>1991</v>
@@ -4360,23 +4255,22 @@
         <v>184</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
+      <c r="I136" s="2"/>
       <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D137" s="21">
         <v>1991</v>
@@ -4385,23 +4279,22 @@
         <v>184</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G137" s="19"/>
       <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
+      <c r="I137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D138" s="21">
         <v>2000</v>
@@ -4410,23 +4303,22 @@
         <v>181</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
+      <c r="I138" s="2"/>
       <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D139" s="21">
         <v>1994</v>
@@ -4435,23 +4327,22 @@
         <v>185</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
+      <c r="I139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140" s="21">
         <v>1987</v>
@@ -4460,23 +4351,22 @@
         <v>165</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D141" s="21">
         <v>1997</v>
@@ -4485,23 +4375,22 @@
         <v>186</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G141" s="19"/>
       <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
+      <c r="I141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D142" s="21">
         <v>1979</v>
@@ -4510,23 +4399,22 @@
         <v>185</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
+      <c r="I142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D143" s="21">
         <v>2002</v>
@@ -4535,23 +4423,22 @@
         <v>168</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
+      <c r="I143" s="2"/>
       <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D144" s="21">
         <v>1992</v>
@@ -4560,23 +4447,22 @@
         <v>191</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G144" s="19"/>
       <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
+      <c r="I144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D145" s="21">
         <v>1998</v>
@@ -4585,23 +4471,22 @@
         <v>184</v>
       </c>
       <c r="F145" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
+      <c r="I145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D146" s="21">
         <v>2002</v>
@@ -4610,23 +4495,22 @@
         <v>188</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
+      <c r="I146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D147" s="21">
         <v>1998</v>
@@ -4635,23 +4519,22 @@
         <v>192</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
+      <c r="I147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D148" s="21">
         <v>1988</v>
@@ -4660,23 +4543,22 @@
         <v>185</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G148" s="19"/>
       <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
+      <c r="I148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D149" s="21">
         <v>1989</v>
@@ -4685,23 +4567,22 @@
         <v>180</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G149" s="19"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
+      <c r="I149" s="2"/>
       <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D150" s="21">
         <v>1991</v>
@@ -4710,23 +4591,22 @@
         <v>182</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G150" s="19"/>
       <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
+      <c r="I150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D151" s="21">
         <v>1990</v>
@@ -4735,23 +4615,22 @@
         <v>175</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
+      <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D152" s="21">
         <v>1992</v>
@@ -4760,23 +4639,22 @@
         <v>178</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
+      <c r="I152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D153" s="21">
         <v>1994</v>
@@ -4785,23 +4663,22 @@
         <v>186</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
+      <c r="I153" s="2"/>
       <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D154" s="21">
         <v>1996</v>
@@ -4810,23 +4687,22 @@
         <v>164</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D155" s="21">
         <v>1995</v>
@@ -4835,21 +4711,20 @@
         <v>186</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-    </row>
-    <row r="156" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D156" s="21">
         <v>1991</v>
@@ -4858,21 +4733,20 @@
         <v>186</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-    </row>
-    <row r="157" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D157" s="21">
         <v>1999</v>
@@ -4881,21 +4755,20 @@
         <v>185</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-    </row>
-    <row r="158" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D158" s="21">
         <v>1989</v>
@@ -4904,21 +4777,20 @@
         <v>177</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-    </row>
-    <row r="159" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D159" s="21">
         <v>1998</v>
@@ -4927,21 +4799,20 @@
         <v>198</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-    </row>
-    <row r="160" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D160" s="21">
         <v>1990</v>
@@ -4950,21 +4821,20 @@
         <v>194</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-    </row>
-    <row r="161" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D161" s="21">
         <v>1999</v>
@@ -4973,21 +4843,20 @@
         <v>186</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G161" s="19"/>
       <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D162" s="21">
         <v>1989</v>
@@ -4996,21 +4865,20 @@
         <v>190</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D163" s="21">
         <v>1990</v>
@@ -5019,21 +4887,20 @@
         <v>179</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D164" s="21">
         <v>1994</v>
@@ -5042,21 +4909,20 @@
         <v>180</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D165" s="21">
         <v>2000</v>
@@ -5065,21 +4931,20 @@
         <v>169</v>
       </c>
       <c r="F165" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D166" s="21">
         <v>1983</v>
@@ -5088,21 +4953,20 @@
         <v>180</v>
       </c>
       <c r="F166" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D167" s="21">
         <v>1998</v>
@@ -5111,21 +4975,20 @@
         <v>190</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D168" s="21">
         <v>1991</v>
@@ -5134,21 +4997,20 @@
         <v>189</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D169" s="21">
         <v>1989</v>
@@ -5157,21 +5019,20 @@
         <v>170</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D170" s="21">
         <v>1994</v>
@@ -5180,21 +5041,20 @@
         <v>168</v>
       </c>
       <c r="F170" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G170" s="19"/>
       <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D171" s="21">
         <v>1998</v>
@@ -5203,21 +5063,20 @@
         <v>186</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D172" s="21">
         <v>1990</v>
@@ -5226,21 +5085,20 @@
         <v>178</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D173" s="21">
         <v>1994</v>
@@ -5249,21 +5107,20 @@
         <v>192</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D174" s="21">
         <v>1995</v>
@@ -5272,13 +5129,12 @@
         <v>187</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B175" s="2"/>
       <c r="C175" s="19"/>
       <c r="D175" s="27"/>
@@ -5286,9 +5142,8 @@
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
       <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B176" s="2"/>
       <c r="C176" s="19"/>
       <c r="D176" s="27"/>
@@ -5296,9 +5151,8 @@
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
       <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B177" s="2"/>
       <c r="C177" s="19"/>
       <c r="D177" s="27"/>
@@ -5306,9 +5160,8 @@
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178" s="2"/>
       <c r="C178" s="19"/>
       <c r="D178" s="27"/>
@@ -5316,9 +5169,8 @@
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
       <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179" s="2"/>
       <c r="C179" s="19"/>
       <c r="D179" s="27"/>
@@ -5326,9 +5178,8 @@
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B180" s="2"/>
       <c r="C180" s="19"/>
       <c r="D180" s="27"/>
@@ -5336,9 +5187,8 @@
       <c r="F180" s="19"/>
       <c r="G180" s="19"/>
       <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" s="2"/>
       <c r="C181" s="19"/>
       <c r="D181" s="27"/>
@@ -5346,9 +5196,8 @@
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
       <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182" s="2"/>
       <c r="C182" s="19"/>
       <c r="D182" s="27"/>
@@ -5356,9 +5205,8 @@
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
       <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B183" s="2"/>
       <c r="C183" s="19"/>
       <c r="D183" s="27"/>
@@ -5366,7 +5214,6 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset_volley.xlsx
+++ b/dataset_volley.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Final-Crewmates-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF030B5-3D34-4068-8EB8-1E4454824AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DCC1AE-B2FB-439D-A79C-A49477C7AA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{381DB8E8-216C-41B8-B6DA-A2B4776491B4}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>CYP</t>
   </si>
   <si>
-    <t>ROM</t>
-  </si>
-  <si>
     <t>PIANI VITTORIA</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>ZANETTI BERGAMO</t>
+  </si>
+  <si>
+    <t>ROU</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A63F9-E294-419D-A374-792BE1D22AA3}">
   <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,27 +1237,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>7</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>9</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>17</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>18</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>21</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>22</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>23</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>24</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>25</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>26</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>27</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>28</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>29</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>30</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>31</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>32</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>33</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>34</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>38</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>39</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>40</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>41</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="33" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>42</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="34" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>43</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="35" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>44</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="36" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>45</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="37" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>46</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="38" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>47</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="39" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>48</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="40" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>49</v>
@@ -2050,14 +2050,14 @@
         <v>187</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>50</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>20</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>6</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>6</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>1</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>16</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>4</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>4</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>6</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>16</v>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>16</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>6</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>20</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>6</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>6</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>1</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>20</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>4</v>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>6</v>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>16</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>1</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>4</v>
@@ -2554,7 +2554,7 @@
         <v>180</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>16</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>16</v>
@@ -2600,7 +2600,7 @@
         <v>192</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>20</v>
@@ -2623,15 +2623,15 @@
         <v>191</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>6</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>6</v>
@@ -2672,10 +2672,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>6</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>4</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>6</v>
@@ -2735,7 +2735,7 @@
         <v>187</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>6</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>16</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>1</v>
@@ -2816,10 +2816,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>4</v>
@@ -2831,7 +2831,7 @@
         <v>172</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>16</v>
@@ -2864,10 +2864,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>6</v>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>16</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>20</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>16</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>1</v>
@@ -2984,10 +2984,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>1</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>20</v>
@@ -3023,7 +3023,7 @@
         <v>189</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="2"/>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>16</v>
@@ -3053,10 +3053,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>16</v>
@@ -3074,10 +3074,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>16</v>
@@ -3095,10 +3095,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>6</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>1</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>6</v>
@@ -3152,16 +3152,16 @@
         <v>192</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G88" s="19"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>4</v>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>4</v>
@@ -3194,16 +3194,16 @@
         <v>181</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G90" s="19"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>6</v>
@@ -3215,16 +3215,16 @@
         <v>193</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G91" s="19"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>6</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>20</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>16</v>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>16</v>
@@ -3299,17 +3299,17 @@
         <v>195</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>6</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>4</v>
@@ -3350,10 +3350,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>6</v>
@@ -3365,17 +3365,17 @@
         <v>185</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>4</v>
@@ -3387,17 +3387,17 @@
         <v>180</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>1</v>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>20</v>
@@ -3438,10 +3438,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>6</v>
@@ -3460,10 +3460,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>1</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>20</v>
@@ -3497,17 +3497,17 @@
         <v>188</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>16</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>16</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>6</v>
@@ -3570,10 +3570,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>4</v>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>16</v>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="21" t="s">
         <v>16</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" s="21" t="s">
         <v>20</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C112" s="21" t="s">
         <v>4</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C113" s="21" t="s">
         <v>6</v>
@@ -3705,7 +3705,7 @@
         <v>185</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C114" s="21" t="s">
         <v>16</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C115" s="21" t="s">
         <v>6</v>
@@ -3753,7 +3753,7 @@
         <v>188</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C116" s="21" t="s">
         <v>6</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>20</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>6</v>
@@ -3825,7 +3825,7 @@
         <v>188</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>1</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C120" s="21" t="s">
         <v>1</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>20</v>
@@ -3897,7 +3897,7 @@
         <v>203</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C122" s="21" t="s">
         <v>4</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>16</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>6</v>
@@ -3969,7 +3969,7 @@
         <v>184</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125" s="21" t="s">
         <v>6</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>1</v>
@@ -4026,10 +4026,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C127" s="21" t="s">
         <v>16</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C128" s="21" t="s">
         <v>1</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C129" s="21" t="s">
         <v>16</v>
@@ -4098,10 +4098,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>16</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>20</v>
@@ -4137,7 +4137,7 @@
         <v>188</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G131" s="19"/>
       <c r="H131" s="19"/>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>6</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133" s="21" t="s">
         <v>6</v>
@@ -4185,7 +4185,7 @@
         <v>185</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C134" s="21" t="s">
         <v>4</v>
@@ -4216,10 +4216,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C135" s="21" t="s">
         <v>4</v>
@@ -4231,7 +4231,7 @@
         <v>188</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C136" s="21" t="s">
         <v>16</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C137" s="21" t="s">
         <v>6</v>
@@ -4288,10 +4288,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>4</v>
@@ -4312,10 +4312,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C139" s="21" t="s">
         <v>6</v>
@@ -4327,7 +4327,7 @@
         <v>185</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C140" s="21" t="s">
         <v>1</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C141" s="21" t="s">
         <v>20</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C142" s="21" t="s">
         <v>6</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C143" s="21" t="s">
         <v>1</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C144" s="21" t="s">
         <v>16</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C145" s="21" t="s">
         <v>6</v>
@@ -4471,7 +4471,7 @@
         <v>184</v>
       </c>
       <c r="F145" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
@@ -4480,10 +4480,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C146" s="21" t="s">
         <v>6</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C147" s="21" t="s">
         <v>16</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="148" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C148" s="21" t="s">
         <v>16</v>
@@ -4552,10 +4552,10 @@
     </row>
     <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C149" s="21" t="s">
         <v>4</v>
@@ -4567,7 +4567,7 @@
         <v>180</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G149" s="19"/>
       <c r="H149" s="19"/>
@@ -4576,10 +4576,10 @@
     </row>
     <row r="150" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C150" s="21" t="s">
         <v>6</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="151" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C151" s="21" t="s">
         <v>1</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="152" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C152" s="21" t="s">
         <v>4</v>
@@ -4648,10 +4648,10 @@
     </row>
     <row r="153" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C153" s="21" t="s">
         <v>20</v>
@@ -4663,7 +4663,7 @@
         <v>186</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="154" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C154" s="21" t="s">
         <v>1</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="155" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C155" s="21" t="s">
         <v>16</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="156" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C156" s="21" t="s">
         <v>20</v>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="157" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C157" s="21" t="s">
         <v>16</v>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="158" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C158" s="21" t="s">
         <v>4</v>
@@ -4777,17 +4777,17 @@
         <v>177</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
     </row>
     <row r="159" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C159" s="21" t="s">
         <v>6</v>
@@ -4799,17 +4799,17 @@
         <v>198</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
     </row>
     <row r="160" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C160" s="21" t="s">
         <v>6</v>
@@ -4821,17 +4821,17 @@
         <v>194</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
     </row>
     <row r="161" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C161" s="21" t="s">
         <v>6</v>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>6</v>
@@ -4865,17 +4865,17 @@
         <v>190</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C163" s="21" t="s">
         <v>6</v>
@@ -4887,17 +4887,17 @@
         <v>179</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C164" s="21" t="s">
         <v>4</v>
@@ -4916,10 +4916,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C165" s="21" t="s">
         <v>1</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C166" s="21" t="s">
         <v>6</v>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>20</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>16</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>4</v>
@@ -5019,17 +5019,17 @@
         <v>170</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C170" s="21" t="s">
         <v>1</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>6</v>
@@ -5063,17 +5063,17 @@
         <v>186</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>6</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>16</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C174" s="21" t="s">
         <v>16</v>
